--- a/bin/test.xlsx
+++ b/bin/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03-Code\MagicApp\MagicApp\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="16815" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>/Items/Item1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +78,34 @@
   </si>
   <si>
     <t>test2-es.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格书.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6      DRA125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0    DAR123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +154,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,19 +424,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +449,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -432,10 +461,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -445,8 +477,11 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -456,8 +491,11 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -466,10 +504,28 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>